--- a/LaserEnergyTables.xlsx
+++ b/LaserEnergyTables.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>Таблица энергий для первого излучателя с длинным импульсом</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Режим длинных импульсов:</t>
+  </si>
+  <si>
+    <t>Параметры для программирования</t>
   </si>
 </sst>
 </file>
@@ -115,21 +118,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
@@ -681,7 +694,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.15</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -1057,7 +1070,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.5</c:v>
@@ -9088,56 +9101,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y53"/>
+  <dimension ref="A1:AA69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+      <selection activeCell="A43" sqref="A43:S43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C3" s="1">
@@ -9181,49 +9194,49 @@
       <c r="I4" s="2">
         <v>420</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>200</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>0.1</v>
       </c>
       <c r="C5">
         <f>$E5*C$3+$B5*(1-C$3)</f>
-        <v>0.11649999999999999</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="D5">
         <f>$E5*D$3+$B5*(1-D$3)</f>
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.15</v>
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.4</v>
       </c>
       <c r="F5">
         <f>$I5*F$3+$E5*(1-F$3)</f>
-        <v>0.23749999999999999</v>
+        <v>0.47500000000000003</v>
       </c>
       <c r="G5">
         <f t="shared" ref="G5:H14" si="0">$I5*G$3+$E5*(1-G$3)</f>
-        <v>0.32500000000000001</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>0.41249999999999998</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0.5</v>
+        <v>0.62499999999999989</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>400</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>0.7</v>
       </c>
       <c r="C6">
@@ -9234,7 +9247,7 @@
         <f t="shared" si="1"/>
         <v>0.89800000000000002</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="F6">
@@ -9249,15 +9262,15 @@
         <f t="shared" si="0"/>
         <v>1.375</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="3">
         <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>600</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>1.1000000000000001</v>
       </c>
       <c r="C7">
@@ -9268,7 +9281,7 @@
         <f t="shared" si="1"/>
         <v>1.694</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>2</v>
       </c>
       <c r="F7">
@@ -9283,15 +9296,15 @@
         <f t="shared" si="0"/>
         <v>2.8250000000000002</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="3">
         <v>3.1</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>800</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>1.5</v>
       </c>
       <c r="C8">
@@ -9302,7 +9315,7 @@
         <f t="shared" si="1"/>
         <v>2.3579999999999997</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>2.8</v>
       </c>
       <c r="F8">
@@ -9317,15 +9330,15 @@
         <f t="shared" si="0"/>
         <v>3.7749999999999995</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="3">
         <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>1000</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>2</v>
       </c>
       <c r="C9">
@@ -9336,7 +9349,7 @@
         <f t="shared" si="1"/>
         <v>3.056</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>3.6</v>
       </c>
       <c r="F9">
@@ -9351,15 +9364,15 @@
         <f t="shared" si="0"/>
         <v>4.5750000000000002</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="3">
         <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>1200</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>2.7</v>
       </c>
       <c r="C10">
@@ -9370,7 +9383,7 @@
         <f t="shared" si="1"/>
         <v>3.6239999999999997</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <v>4.0999999999999996</v>
       </c>
       <c r="F10">
@@ -9385,15 +9398,15 @@
         <f t="shared" si="0"/>
         <v>6.0500000000000007</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="3">
         <v>6.7</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>1400</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>3.5</v>
       </c>
       <c r="C11">
@@ -9404,7 +9417,7 @@
         <f t="shared" si="1"/>
         <v>4.2919999999999998</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <v>4.7</v>
       </c>
       <c r="F11">
@@ -9419,15 +9432,15 @@
         <f t="shared" si="0"/>
         <v>6.7250000000000005</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="3">
         <v>7.4</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>1600</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>4.2</v>
       </c>
       <c r="C12">
@@ -9438,7 +9451,7 @@
         <f t="shared" si="1"/>
         <v>4.8600000000000003</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="3">
         <v>5.2</v>
       </c>
       <c r="F12">
@@ -9453,15 +9466,15 @@
         <f t="shared" si="0"/>
         <v>7.0750000000000002</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="3">
         <v>7.7</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>1800</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>4.7</v>
       </c>
       <c r="C13">
@@ -9472,7 +9485,7 @@
         <f t="shared" si="1"/>
         <v>5.69</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="3">
         <v>6.2</v>
       </c>
       <c r="F13">
@@ -9487,15 +9500,15 @@
         <f t="shared" si="0"/>
         <v>8.3000000000000007</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>2000</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>5</v>
       </c>
       <c r="C14">
@@ -9506,7 +9519,7 @@
         <f t="shared" si="1"/>
         <v>6.782</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="3">
         <v>7.7</v>
       </c>
       <c r="F14">
@@ -9521,28 +9534,28 @@
         <f t="shared" si="0"/>
         <v>9.8000000000000007</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="3">
         <v>10.5</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
@@ -9586,15 +9599,15 @@
       <c r="I18" s="2">
         <v>400</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="4">
         <v>2</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <v>3</v>
       </c>
       <c r="C19">
@@ -9605,7 +9618,7 @@
         <f>$E19*D$3+$B19*(1-D$3)</f>
         <v>4.6500000000000004</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="3">
         <v>5.5</v>
       </c>
       <c r="F19">
@@ -9620,15 +9633,15 @@
         <f t="shared" si="3"/>
         <v>8.125</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="4">
         <v>3</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <v>6.5</v>
       </c>
       <c r="C20">
@@ -9639,7 +9652,7 @@
         <f t="shared" si="4"/>
         <v>7.82</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="3">
         <v>8.5</v>
       </c>
       <c r="F20">
@@ -9654,15 +9667,15 @@
         <f t="shared" si="3"/>
         <v>11.125</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="4">
         <v>4</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="3">
         <v>9</v>
       </c>
       <c r="C21">
@@ -9673,7 +9686,7 @@
         <f t="shared" si="4"/>
         <v>10.32</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="3">
         <v>11</v>
       </c>
       <c r="F21">
@@ -9688,15 +9701,15 @@
         <f t="shared" si="3"/>
         <v>14.75</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="4">
         <v>5</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="3">
         <v>10.5</v>
       </c>
       <c r="C22">
@@ -9707,7 +9720,7 @@
         <f t="shared" si="4"/>
         <v>12.48</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="3">
         <v>13.5</v>
       </c>
       <c r="F22">
@@ -9722,15 +9735,15 @@
         <f t="shared" si="3"/>
         <v>16.875</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="4">
         <v>6</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="3">
         <v>12</v>
       </c>
       <c r="C23">
@@ -9741,7 +9754,7 @@
         <f t="shared" si="4"/>
         <v>15.63</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="3">
         <v>17.5</v>
       </c>
       <c r="F23">
@@ -9756,15 +9769,15 @@
         <f t="shared" si="3"/>
         <v>19.375</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24" s="4">
         <v>7</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="3">
         <v>13</v>
       </c>
       <c r="C24">
@@ -9775,7 +9788,7 @@
         <f t="shared" si="4"/>
         <v>17.62</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="3">
         <v>20</v>
       </c>
       <c r="F24">
@@ -9790,15 +9803,15 @@
         <f t="shared" si="3"/>
         <v>23.75</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="3">
         <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="A25" s="4">
         <v>8</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="3">
         <v>14</v>
       </c>
       <c r="C25">
@@ -9809,7 +9822,7 @@
         <f t="shared" si="4"/>
         <v>19.940000000000001</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="3">
         <v>23</v>
       </c>
       <c r="F25">
@@ -9824,15 +9837,15 @@
         <f t="shared" si="3"/>
         <v>28.25</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26" s="4">
         <v>9</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="3">
         <v>18</v>
       </c>
       <c r="C26">
@@ -9843,7 +9856,7 @@
         <f t="shared" si="4"/>
         <v>22.619999999999997</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="3">
         <v>25</v>
       </c>
       <c r="F26">
@@ -9858,15 +9871,15 @@
         <f t="shared" si="3"/>
         <v>33.25</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="3">
         <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="A27" s="4">
         <v>10</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="3">
         <v>20</v>
       </c>
       <c r="C27">
@@ -9877,7 +9890,7 @@
         <f t="shared" si="4"/>
         <v>25.28</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="3">
         <v>28</v>
       </c>
       <c r="F27">
@@ -9892,29 +9905,29 @@
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="3">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="7"/>
+      <c r="B28" s="5"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C30" s="1">
@@ -9958,15 +9971,15 @@
       <c r="I31" s="2">
         <v>400</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="J31" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+      <c r="A32" s="4">
         <v>10</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="3">
         <v>21</v>
       </c>
       <c r="C32">
@@ -9977,7 +9990,7 @@
         <f>$E32*D$3+$B32*(1-D$3)</f>
         <v>25.62</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="3">
         <v>28</v>
       </c>
       <c r="F32">
@@ -9992,15 +10005,15 @@
         <f t="shared" si="6"/>
         <v>35.5</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="3">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
         <v>12</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="3">
         <v>24</v>
       </c>
       <c r="C33">
@@ -10011,7 +10024,7 @@
         <f t="shared" si="7"/>
         <v>27.3</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="3">
         <v>29</v>
       </c>
       <c r="F33">
@@ -10026,15 +10039,15 @@
         <f t="shared" si="6"/>
         <v>42.5</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="3">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
         <v>14</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="3">
         <v>28</v>
       </c>
       <c r="C34">
@@ -10045,7 +10058,7 @@
         <f t="shared" si="7"/>
         <v>29.32</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="3">
         <v>30</v>
       </c>
       <c r="F34">
@@ -10060,15 +10073,15 @@
         <f t="shared" si="6"/>
         <v>45.75</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="3">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
         <v>16</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="3">
         <v>29</v>
       </c>
       <c r="C35">
@@ -10079,7 +10092,7 @@
         <f t="shared" si="7"/>
         <v>31.64</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="3">
         <v>33</v>
       </c>
       <c r="F35">
@@ -10094,15 +10107,15 @@
         <f t="shared" si="6"/>
         <v>49.5</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="3">
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
         <v>18</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="3">
         <v>33</v>
       </c>
       <c r="C36">
@@ -10113,7 +10126,7 @@
         <f t="shared" si="7"/>
         <v>34.32</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="3">
         <v>35</v>
       </c>
       <c r="F36">
@@ -10128,15 +10141,15 @@
         <f t="shared" si="6"/>
         <v>53.75</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
         <v>20</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="3">
         <v>35</v>
       </c>
       <c r="C37">
@@ -10147,7 +10160,7 @@
         <f t="shared" si="7"/>
         <v>36.980000000000004</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="3">
         <v>38</v>
       </c>
       <c r="F37">
@@ -10162,15 +10175,15 @@
         <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37" s="3">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
         <v>22</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="3">
         <v>37</v>
       </c>
       <c r="C38">
@@ -10181,7 +10194,7 @@
         <f t="shared" si="7"/>
         <v>40.96</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="3">
         <v>43</v>
       </c>
       <c r="F38">
@@ -10196,15 +10209,15 @@
         <f t="shared" si="6"/>
         <v>63.25</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
         <v>24</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="3">
         <v>40</v>
       </c>
       <c r="C39">
@@ -10215,7 +10228,7 @@
         <f t="shared" si="7"/>
         <v>44.620000000000005</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="3">
         <v>47</v>
       </c>
       <c r="F39">
@@ -10230,15 +10243,15 @@
         <f t="shared" si="6"/>
         <v>64.25</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I39" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
         <v>26</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="3">
         <v>40</v>
       </c>
       <c r="C40">
@@ -10249,7 +10262,7 @@
         <f t="shared" si="7"/>
         <v>46.599999999999994</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="3">
         <v>50</v>
       </c>
       <c r="F40">
@@ -10264,15 +10277,15 @@
         <f t="shared" si="6"/>
         <v>65</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I40" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
         <v>28</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="3">
         <v>40</v>
       </c>
       <c r="C41">
@@ -10283,7 +10296,7 @@
         <f t="shared" si="7"/>
         <v>46.599999999999994</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="3">
         <v>50</v>
       </c>
       <c r="F41">
@@ -10298,357 +10311,1258 @@
         <f t="shared" si="6"/>
         <v>65</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I41" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B44">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="13"/>
+      <c r="W43" s="13"/>
+      <c r="X43" s="13"/>
+      <c r="Y43" s="13"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="U45" s="12"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4">
+        <v>350</v>
+      </c>
+      <c r="C46" s="4">
+        <v>360</v>
+      </c>
+      <c r="D46" s="4">
+        <v>370</v>
+      </c>
+      <c r="E46" s="4">
+        <v>380</v>
+      </c>
+      <c r="F46" s="4">
+        <v>390</v>
+      </c>
+      <c r="G46" s="4">
+        <v>400</v>
+      </c>
+      <c r="H46" s="4">
+        <v>410</v>
+      </c>
+      <c r="I46" s="4">
+        <v>420</v>
+      </c>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4">
+        <v>330</v>
+      </c>
+      <c r="M46" s="4">
+        <v>340</v>
+      </c>
+      <c r="N46" s="4">
+        <v>350</v>
+      </c>
+      <c r="O46" s="4">
+        <v>360</v>
+      </c>
+      <c r="P46" s="4">
+        <v>370</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>380</v>
+      </c>
+      <c r="R46" s="4">
+        <v>390</v>
+      </c>
+      <c r="S46" s="4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>200</v>
+      </c>
+      <c r="B47" s="9">
         <f>B5*10</f>
         <v>1</v>
       </c>
-      <c r="C44">
-        <f t="shared" ref="C44:I44" si="9">C5*10</f>
-        <v>1.165</v>
-      </c>
-      <c r="D44">
+      <c r="C47" s="9">
+        <f t="shared" ref="C47:I47" si="9">C5*10</f>
+        <v>1.9900000000000002</v>
+      </c>
+      <c r="D47" s="9">
         <f t="shared" si="9"/>
-        <v>1.33</v>
-      </c>
-      <c r="E44">
+        <v>2.98</v>
+      </c>
+      <c r="E47" s="9">
         <f t="shared" si="9"/>
-        <v>1.5</v>
-      </c>
-      <c r="F44">
+        <v>4</v>
+      </c>
+      <c r="F47" s="9">
         <f t="shared" si="9"/>
-        <v>2.375</v>
-      </c>
-      <c r="G44">
+        <v>4.75</v>
+      </c>
+      <c r="G47" s="9">
         <f t="shared" si="9"/>
-        <v>3.25</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="9"/>
-        <v>4.125</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="9"/>
+        <v>5.5</v>
+      </c>
+      <c r="H47" s="9">
+        <v>7</v>
+      </c>
+      <c r="I47" s="9">
+        <v>8</v>
+      </c>
+      <c r="K47" s="4">
+        <v>2</v>
+      </c>
+      <c r="L47" s="9">
+        <v>2</v>
+      </c>
+      <c r="M47" s="9">
+        <v>3</v>
+      </c>
+      <c r="N47" s="9">
+        <v>4</v>
+      </c>
+      <c r="O47" s="9">
         <v>5</v>
       </c>
+      <c r="P47" s="9">
+        <f>F19</f>
+        <v>6.375</v>
+      </c>
+      <c r="Q47" s="9">
+        <f>G19</f>
+        <v>7.25</v>
+      </c>
+      <c r="R47" s="9">
+        <f>H19</f>
+        <v>8.125</v>
+      </c>
+      <c r="S47" s="9">
+        <f>I19</f>
+        <v>9</v>
+      </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <f t="shared" ref="B45:I45" si="10">B6*10</f>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>400</v>
+      </c>
+      <c r="B48" s="9">
+        <f t="shared" ref="B48:I48" si="10">B6*10</f>
         <v>7</v>
       </c>
-      <c r="C45">
+      <c r="C48" s="9">
         <f t="shared" si="10"/>
         <v>7.9899999999999993</v>
       </c>
-      <c r="D45">
+      <c r="D48" s="9">
         <f t="shared" si="10"/>
         <v>8.98</v>
       </c>
-      <c r="E45">
+      <c r="E48" s="9">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="F45">
+      <c r="F48" s="9">
         <f t="shared" si="10"/>
         <v>11.25</v>
       </c>
-      <c r="G45">
+      <c r="G48" s="9">
         <f t="shared" si="10"/>
         <v>12.5</v>
       </c>
-      <c r="H45">
+      <c r="H48" s="9">
         <f t="shared" si="10"/>
         <v>13.75</v>
       </c>
-      <c r="I45">
+      <c r="I48" s="9">
         <f t="shared" si="10"/>
         <v>15</v>
       </c>
+      <c r="K48" s="4">
+        <v>3</v>
+      </c>
+      <c r="L48" s="9">
+        <v>5</v>
+      </c>
+      <c r="M48" s="9">
+        <v>6</v>
+      </c>
+      <c r="N48" s="9">
+        <v>7</v>
+      </c>
+      <c r="O48" s="9">
+        <v>8</v>
+      </c>
+      <c r="P48" s="9">
+        <f>F20</f>
+        <v>9.375</v>
+      </c>
+      <c r="Q48" s="9">
+        <f>G20</f>
+        <v>10.25</v>
+      </c>
+      <c r="R48" s="9">
+        <f>H20</f>
+        <v>11.125</v>
+      </c>
+      <c r="S48" s="9">
+        <f>I20</f>
+        <v>12</v>
+      </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <f t="shared" ref="B46:I46" si="11">B7*10</f>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>600</v>
+      </c>
+      <c r="B49" s="9">
+        <f t="shared" ref="B49:I49" si="11">B7*10</f>
         <v>11</v>
       </c>
-      <c r="C46">
+      <c r="C49" s="9">
         <f t="shared" si="11"/>
         <v>13.97</v>
       </c>
-      <c r="D46">
+      <c r="D49" s="9">
         <f t="shared" si="11"/>
         <v>16.939999999999998</v>
       </c>
-      <c r="E46">
+      <c r="E49" s="9">
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="F46">
+      <c r="F49" s="9">
         <f t="shared" si="11"/>
         <v>22.75</v>
       </c>
-      <c r="G46">
+      <c r="G49" s="9">
         <f t="shared" si="11"/>
         <v>25.5</v>
       </c>
-      <c r="H46">
+      <c r="H49" s="9">
         <f t="shared" si="11"/>
         <v>28.25</v>
       </c>
-      <c r="I46">
+      <c r="I49" s="9">
         <f t="shared" si="11"/>
         <v>31</v>
       </c>
+      <c r="K49" s="4">
+        <v>4</v>
+      </c>
+      <c r="L49" s="9">
+        <f>B21</f>
+        <v>9</v>
+      </c>
+      <c r="M49" s="9">
+        <f>C21</f>
+        <v>9.66</v>
+      </c>
+      <c r="N49" s="9">
+        <v>11</v>
+      </c>
+      <c r="O49" s="9">
+        <v>12</v>
+      </c>
+      <c r="P49" s="9">
+        <v>13</v>
+      </c>
+      <c r="Q49" s="9">
+        <f>G21</f>
+        <v>13.5</v>
+      </c>
+      <c r="R49" s="9">
+        <f>H21</f>
+        <v>14.75</v>
+      </c>
+      <c r="S49" s="9">
+        <f>I21</f>
+        <v>16</v>
+      </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47">
-        <f t="shared" ref="B47:I47" si="12">B8*10</f>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>800</v>
+      </c>
+      <c r="B50" s="9">
+        <f t="shared" ref="B50:I50" si="12">B8*10</f>
         <v>15</v>
       </c>
-      <c r="C47">
+      <c r="C50" s="9">
         <f t="shared" si="12"/>
         <v>19.29</v>
       </c>
-      <c r="D47">
+      <c r="D50" s="9">
         <f t="shared" si="12"/>
         <v>23.58</v>
       </c>
-      <c r="E47">
+      <c r="E50" s="9">
         <f t="shared" si="12"/>
         <v>28</v>
       </c>
-      <c r="F47">
+      <c r="F50" s="9">
         <f t="shared" si="12"/>
         <v>31.249999999999996</v>
       </c>
-      <c r="G47">
+      <c r="G50" s="9">
         <f t="shared" si="12"/>
         <v>34.5</v>
       </c>
-      <c r="H47">
+      <c r="H50" s="9">
         <f t="shared" si="12"/>
         <v>37.749999999999993</v>
       </c>
-      <c r="I47">
+      <c r="I50" s="9">
         <f t="shared" si="12"/>
         <v>41</v>
       </c>
+      <c r="K50" s="4">
+        <v>5</v>
+      </c>
+      <c r="L50" s="9">
+        <f>B22</f>
+        <v>10.5</v>
+      </c>
+      <c r="M50" s="9">
+        <v>12</v>
+      </c>
+      <c r="N50" s="9">
+        <v>13</v>
+      </c>
+      <c r="O50" s="9">
+        <f>E22</f>
+        <v>13.5</v>
+      </c>
+      <c r="P50" s="9">
+        <f>F22</f>
+        <v>14.625</v>
+      </c>
+      <c r="Q50" s="9">
+        <f>G22</f>
+        <v>15.75</v>
+      </c>
+      <c r="R50" s="9">
+        <f>H22</f>
+        <v>16.875</v>
+      </c>
+      <c r="S50" s="9">
+        <f>I22</f>
+        <v>18</v>
+      </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <f t="shared" ref="B48:I48" si="13">B9*10</f>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B51" s="9">
+        <f t="shared" ref="B51:I51" si="13">B9*10</f>
         <v>20</v>
       </c>
-      <c r="C48">
+      <c r="C51" s="9">
         <f t="shared" si="13"/>
         <v>25.28</v>
       </c>
-      <c r="D48">
+      <c r="D51" s="9">
         <f t="shared" si="13"/>
         <v>30.560000000000002</v>
       </c>
-      <c r="E48">
+      <c r="E51" s="9">
         <f t="shared" si="13"/>
         <v>36</v>
       </c>
-      <c r="F48">
+      <c r="F51" s="9">
         <f t="shared" si="13"/>
         <v>39.25</v>
       </c>
-      <c r="G48">
+      <c r="G51" s="9">
         <f t="shared" si="13"/>
         <v>42.5</v>
       </c>
-      <c r="H48">
+      <c r="H51" s="9">
         <f t="shared" si="13"/>
         <v>45.75</v>
       </c>
-      <c r="I48">
+      <c r="I51" s="9">
         <f t="shared" si="13"/>
         <v>49</v>
       </c>
+      <c r="K51" s="4">
+        <v>6</v>
+      </c>
+      <c r="L51" s="9">
+        <f>B23</f>
+        <v>12</v>
+      </c>
+      <c r="M51" s="9">
+        <f>C23</f>
+        <v>13.815</v>
+      </c>
+      <c r="N51" s="9">
+        <f>D23</f>
+        <v>15.63</v>
+      </c>
+      <c r="O51" s="9">
+        <f>E23</f>
+        <v>17.5</v>
+      </c>
+      <c r="P51" s="9">
+        <v>19</v>
+      </c>
+      <c r="Q51" s="9">
+        <v>20</v>
+      </c>
+      <c r="R51" s="9">
+        <v>21</v>
+      </c>
+      <c r="S51" s="9">
+        <v>22</v>
+      </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49">
-        <f t="shared" ref="B49:I49" si="14">B10*10</f>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>1200</v>
+      </c>
+      <c r="B52" s="9">
+        <f t="shared" ref="B52:I52" si="14">B10*10</f>
         <v>27</v>
       </c>
-      <c r="C49">
+      <c r="C52" s="9">
         <f t="shared" si="14"/>
         <v>31.619999999999997</v>
       </c>
-      <c r="D49">
+      <c r="D52" s="9">
         <f t="shared" si="14"/>
         <v>36.239999999999995</v>
       </c>
-      <c r="E49">
+      <c r="E52" s="9">
         <f t="shared" si="14"/>
         <v>41</v>
       </c>
-      <c r="F49">
+      <c r="F52" s="9">
         <f t="shared" si="14"/>
         <v>47.5</v>
       </c>
-      <c r="G49">
+      <c r="G52" s="9">
         <f t="shared" si="14"/>
         <v>54</v>
       </c>
-      <c r="H49">
+      <c r="H52" s="9">
         <f t="shared" si="14"/>
         <v>60.500000000000007</v>
       </c>
-      <c r="I49">
+      <c r="I52" s="9">
         <f t="shared" si="14"/>
         <v>67</v>
       </c>
+      <c r="K52" s="4">
+        <v>7</v>
+      </c>
+      <c r="L52" s="9">
+        <f>B24</f>
+        <v>13</v>
+      </c>
+      <c r="M52" s="9">
+        <f>C24</f>
+        <v>15.309999999999999</v>
+      </c>
+      <c r="N52" s="9">
+        <f>D24</f>
+        <v>17.62</v>
+      </c>
+      <c r="O52" s="9">
+        <f>E24</f>
+        <v>20</v>
+      </c>
+      <c r="P52" s="9">
+        <f>F24</f>
+        <v>21.25</v>
+      </c>
+      <c r="Q52" s="9">
+        <f>G24</f>
+        <v>22.5</v>
+      </c>
+      <c r="R52" s="9">
+        <f>H24</f>
+        <v>23.75</v>
+      </c>
+      <c r="S52" s="9">
+        <f>I24</f>
+        <v>25</v>
+      </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <f t="shared" ref="B50:I50" si="15">B11*10</f>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>1400</v>
+      </c>
+      <c r="B53" s="9">
+        <f t="shared" ref="B53:I53" si="15">B11*10</f>
         <v>35</v>
       </c>
-      <c r="C50">
+      <c r="C53" s="9">
         <f t="shared" si="15"/>
         <v>38.96</v>
       </c>
-      <c r="D50">
+      <c r="D53" s="9">
         <f t="shared" si="15"/>
         <v>42.92</v>
       </c>
-      <c r="E50">
+      <c r="E53" s="9">
         <f t="shared" si="15"/>
         <v>47</v>
       </c>
-      <c r="F50">
+      <c r="F53" s="9">
         <f t="shared" si="15"/>
         <v>53.75</v>
       </c>
-      <c r="G50">
+      <c r="G53" s="9">
         <f t="shared" si="15"/>
         <v>60.500000000000007</v>
       </c>
-      <c r="H50">
+      <c r="H53" s="9">
         <f t="shared" si="15"/>
         <v>67.25</v>
       </c>
-      <c r="I50">
+      <c r="I53" s="9">
         <f t="shared" si="15"/>
         <v>74</v>
       </c>
+      <c r="K53" s="4">
+        <v>8</v>
+      </c>
+      <c r="L53" s="9">
+        <f>B25</f>
+        <v>14</v>
+      </c>
+      <c r="M53" s="9">
+        <f>C25</f>
+        <v>16.97</v>
+      </c>
+      <c r="N53" s="9">
+        <f>D25</f>
+        <v>19.940000000000001</v>
+      </c>
+      <c r="O53" s="9">
+        <f>E25</f>
+        <v>23</v>
+      </c>
+      <c r="P53" s="9">
+        <f>F25</f>
+        <v>24.75</v>
+      </c>
+      <c r="Q53" s="9">
+        <f>G25</f>
+        <v>26.5</v>
+      </c>
+      <c r="R53" s="9">
+        <f>H25</f>
+        <v>28.25</v>
+      </c>
+      <c r="S53" s="9">
+        <f>I25</f>
+        <v>30</v>
+      </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <f t="shared" ref="B51:I51" si="16">B12*10</f>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>1600</v>
+      </c>
+      <c r="B54" s="9">
+        <f t="shared" ref="B54:I54" si="16">B12*10</f>
         <v>42</v>
       </c>
-      <c r="C51">
+      <c r="C54" s="9">
         <f t="shared" si="16"/>
         <v>45.3</v>
       </c>
-      <c r="D51">
+      <c r="D54" s="9">
         <f t="shared" si="16"/>
         <v>48.6</v>
       </c>
-      <c r="E51">
+      <c r="E54" s="9">
         <f t="shared" si="16"/>
         <v>52</v>
       </c>
-      <c r="F51">
+      <c r="F54" s="9">
         <f t="shared" si="16"/>
         <v>58.25</v>
       </c>
-      <c r="G51">
+      <c r="G54" s="9">
         <f t="shared" si="16"/>
         <v>64.5</v>
       </c>
-      <c r="H51">
+      <c r="H54" s="9">
         <f t="shared" si="16"/>
         <v>70.75</v>
       </c>
-      <c r="I51">
+      <c r="I54" s="9">
         <f t="shared" si="16"/>
         <v>77</v>
       </c>
+      <c r="K54" s="4">
+        <v>9</v>
+      </c>
+      <c r="L54" s="9">
+        <f>B26</f>
+        <v>18</v>
+      </c>
+      <c r="M54" s="9">
+        <f>C26</f>
+        <v>20.309999999999999</v>
+      </c>
+      <c r="N54" s="9">
+        <f>D26</f>
+        <v>22.619999999999997</v>
+      </c>
+      <c r="O54" s="9">
+        <f>E26</f>
+        <v>25</v>
+      </c>
+      <c r="P54" s="9">
+        <f>F26</f>
+        <v>27.75</v>
+      </c>
+      <c r="Q54" s="9">
+        <f>G26</f>
+        <v>30.5</v>
+      </c>
+      <c r="R54" s="9">
+        <f>H26</f>
+        <v>33.25</v>
+      </c>
+      <c r="S54" s="9">
+        <f>I26</f>
+        <v>36</v>
+      </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52">
-        <f t="shared" ref="B52:I52" si="17">B13*10</f>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>1800</v>
+      </c>
+      <c r="B55" s="9">
+        <f t="shared" ref="B55:I55" si="17">B13*10</f>
         <v>47</v>
       </c>
-      <c r="C52">
+      <c r="C55" s="9">
         <f t="shared" si="17"/>
         <v>51.95</v>
       </c>
-      <c r="D52">
+      <c r="D55" s="9">
         <f t="shared" si="17"/>
         <v>56.900000000000006</v>
       </c>
-      <c r="E52">
+      <c r="E55" s="9">
         <f t="shared" si="17"/>
         <v>62</v>
       </c>
-      <c r="F52">
+      <c r="F55" s="9">
         <f t="shared" si="17"/>
         <v>69</v>
       </c>
-      <c r="G52">
+      <c r="G55" s="9">
         <f t="shared" si="17"/>
         <v>76</v>
       </c>
-      <c r="H52">
+      <c r="H55" s="9">
         <f t="shared" si="17"/>
         <v>83</v>
       </c>
-      <c r="I52">
+      <c r="I55" s="9">
         <f t="shared" si="17"/>
         <v>90</v>
       </c>
+      <c r="K55" s="4">
+        <v>10</v>
+      </c>
+      <c r="L55" s="9">
+        <f>B27</f>
+        <v>20</v>
+      </c>
+      <c r="M55" s="9">
+        <f>C27</f>
+        <v>22.64</v>
+      </c>
+      <c r="N55" s="9">
+        <f>D27</f>
+        <v>25.28</v>
+      </c>
+      <c r="O55" s="9">
+        <f>E27</f>
+        <v>28</v>
+      </c>
+      <c r="P55" s="9">
+        <f>F27</f>
+        <v>31</v>
+      </c>
+      <c r="Q55" s="9">
+        <f>G27</f>
+        <v>34</v>
+      </c>
+      <c r="R55" s="9">
+        <f>H27</f>
+        <v>37</v>
+      </c>
+      <c r="S55" s="9">
+        <f>I27</f>
+        <v>40</v>
+      </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53">
-        <f t="shared" ref="B53:I53" si="18">B14*10</f>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B56" s="9">
+        <f t="shared" ref="B56:I56" si="18">B14*10</f>
         <v>50</v>
       </c>
-      <c r="C53">
+      <c r="C56" s="9">
         <f t="shared" si="18"/>
         <v>58.91</v>
       </c>
-      <c r="D53">
+      <c r="D56" s="9">
         <f t="shared" si="18"/>
         <v>67.819999999999993</v>
       </c>
-      <c r="E53">
+      <c r="E56" s="9">
         <f t="shared" si="18"/>
         <v>77</v>
       </c>
-      <c r="F53">
+      <c r="F56" s="9">
         <f t="shared" si="18"/>
         <v>84</v>
       </c>
-      <c r="G53">
+      <c r="G56" s="9">
         <f t="shared" si="18"/>
         <v>91</v>
       </c>
-      <c r="H53">
+      <c r="H56" s="9">
         <f t="shared" si="18"/>
         <v>98</v>
       </c>
-      <c r="I53">
+      <c r="I56" s="9">
         <f t="shared" si="18"/>
         <v>105</v>
       </c>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="12"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4">
+        <v>330</v>
+      </c>
+      <c r="C59" s="4">
+        <v>340</v>
+      </c>
+      <c r="D59" s="4">
+        <v>350</v>
+      </c>
+      <c r="E59" s="4">
+        <v>360</v>
+      </c>
+      <c r="F59" s="4">
+        <v>370</v>
+      </c>
+      <c r="G59" s="4">
+        <v>380</v>
+      </c>
+      <c r="H59" s="4">
+        <v>390</v>
+      </c>
+      <c r="I59" s="4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>10</v>
+      </c>
+      <c r="B60" s="9">
+        <f>B32</f>
+        <v>21</v>
+      </c>
+      <c r="C60" s="9">
+        <f>C32</f>
+        <v>23.31</v>
+      </c>
+      <c r="D60" s="9">
+        <f>D32</f>
+        <v>25.62</v>
+      </c>
+      <c r="E60" s="9">
+        <f>E32</f>
+        <v>28</v>
+      </c>
+      <c r="F60" s="9">
+        <f>F32</f>
+        <v>30.5</v>
+      </c>
+      <c r="G60" s="9">
+        <f>G32</f>
+        <v>33</v>
+      </c>
+      <c r="H60" s="9">
+        <f>H32</f>
+        <v>35.5</v>
+      </c>
+      <c r="I60" s="9">
+        <f>I32</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>12</v>
+      </c>
+      <c r="B61" s="9">
+        <f>B33</f>
+        <v>24</v>
+      </c>
+      <c r="C61" s="9">
+        <f>C33</f>
+        <v>25.65</v>
+      </c>
+      <c r="D61" s="9">
+        <f>D33</f>
+        <v>27.3</v>
+      </c>
+      <c r="E61" s="9">
+        <f>E33</f>
+        <v>29</v>
+      </c>
+      <c r="F61" s="9">
+        <f>F33</f>
+        <v>33.5</v>
+      </c>
+      <c r="G61" s="9">
+        <f>G33</f>
+        <v>38</v>
+      </c>
+      <c r="H61" s="9">
+        <f>H33</f>
+        <v>42.5</v>
+      </c>
+      <c r="I61" s="9">
+        <f>I33</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>14</v>
+      </c>
+      <c r="B62" s="9">
+        <v>27</v>
+      </c>
+      <c r="C62" s="9">
+        <v>28</v>
+      </c>
+      <c r="D62" s="9">
+        <f>D34</f>
+        <v>29.32</v>
+      </c>
+      <c r="E62" s="9">
+        <f>E34</f>
+        <v>30</v>
+      </c>
+      <c r="F62" s="9">
+        <f>F34</f>
+        <v>35.25</v>
+      </c>
+      <c r="G62" s="9">
+        <f>G34</f>
+        <v>40.5</v>
+      </c>
+      <c r="H62" s="9">
+        <f>H34</f>
+        <v>45.75</v>
+      </c>
+      <c r="I62" s="9">
+        <f>I34</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>16</v>
+      </c>
+      <c r="B63" s="9">
+        <f>B35</f>
+        <v>29</v>
+      </c>
+      <c r="C63" s="9">
+        <f>C35</f>
+        <v>30.32</v>
+      </c>
+      <c r="D63" s="9">
+        <f>D35</f>
+        <v>31.64</v>
+      </c>
+      <c r="E63" s="9">
+        <f>E35</f>
+        <v>33</v>
+      </c>
+      <c r="F63" s="9">
+        <f>F35</f>
+        <v>38.5</v>
+      </c>
+      <c r="G63" s="9">
+        <f>G35</f>
+        <v>44</v>
+      </c>
+      <c r="H63" s="9">
+        <f>H35</f>
+        <v>49.5</v>
+      </c>
+      <c r="I63" s="9">
+        <f>I35</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>18</v>
+      </c>
+      <c r="B64" s="9">
+        <f>B36</f>
+        <v>33</v>
+      </c>
+      <c r="C64" s="9">
+        <f>C36</f>
+        <v>33.659999999999997</v>
+      </c>
+      <c r="D64" s="9">
+        <f>D36</f>
+        <v>34.32</v>
+      </c>
+      <c r="E64" s="9">
+        <f>E36</f>
+        <v>35</v>
+      </c>
+      <c r="F64" s="9">
+        <f>F36</f>
+        <v>41.25</v>
+      </c>
+      <c r="G64" s="9">
+        <f>G36</f>
+        <v>47.5</v>
+      </c>
+      <c r="H64" s="9">
+        <f>H36</f>
+        <v>53.75</v>
+      </c>
+      <c r="I64" s="9">
+        <f>I36</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>20</v>
+      </c>
+      <c r="B65" s="9">
+        <f>B37</f>
+        <v>35</v>
+      </c>
+      <c r="C65" s="9">
+        <f>C37</f>
+        <v>35.989999999999995</v>
+      </c>
+      <c r="D65" s="9">
+        <f>D37</f>
+        <v>36.980000000000004</v>
+      </c>
+      <c r="E65" s="9">
+        <f>E37</f>
+        <v>38</v>
+      </c>
+      <c r="F65" s="9">
+        <f>F37</f>
+        <v>44.5</v>
+      </c>
+      <c r="G65" s="9">
+        <f>G37</f>
+        <v>51</v>
+      </c>
+      <c r="H65" s="9">
+        <f>H37</f>
+        <v>57.5</v>
+      </c>
+      <c r="I65" s="9">
+        <f>I37</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>22</v>
+      </c>
+      <c r="B66" s="9">
+        <f>B38</f>
+        <v>37</v>
+      </c>
+      <c r="C66" s="9">
+        <f>C38</f>
+        <v>38.980000000000004</v>
+      </c>
+      <c r="D66" s="9">
+        <f>D38</f>
+        <v>40.96</v>
+      </c>
+      <c r="E66" s="9">
+        <f>E38</f>
+        <v>43</v>
+      </c>
+      <c r="F66" s="9">
+        <f>F38</f>
+        <v>49.75</v>
+      </c>
+      <c r="G66" s="9">
+        <f>G38</f>
+        <v>56.5</v>
+      </c>
+      <c r="H66" s="9">
+        <f>H38</f>
+        <v>63.25</v>
+      </c>
+      <c r="I66" s="9">
+        <f>I38</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>24</v>
+      </c>
+      <c r="B67" s="9">
+        <f>B39</f>
+        <v>40</v>
+      </c>
+      <c r="C67" s="9">
+        <f>C39</f>
+        <v>42.31</v>
+      </c>
+      <c r="D67" s="9">
+        <f>D39</f>
+        <v>44.620000000000005</v>
+      </c>
+      <c r="E67" s="9">
+        <f>E39</f>
+        <v>47</v>
+      </c>
+      <c r="F67" s="9">
+        <f>F39</f>
+        <v>52.75</v>
+      </c>
+      <c r="G67" s="9">
+        <f>G39</f>
+        <v>58.5</v>
+      </c>
+      <c r="H67" s="9">
+        <f>H39</f>
+        <v>64.25</v>
+      </c>
+      <c r="I67" s="9">
+        <f>I39</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>26</v>
+      </c>
+      <c r="B68" s="9">
+        <f>B40</f>
+        <v>40</v>
+      </c>
+      <c r="C68" s="9">
+        <f>C40</f>
+        <v>43.3</v>
+      </c>
+      <c r="D68" s="9">
+        <f>D40</f>
+        <v>46.599999999999994</v>
+      </c>
+      <c r="E68" s="9">
+        <f>E40</f>
+        <v>50</v>
+      </c>
+      <c r="F68" s="9">
+        <f>F40</f>
+        <v>55</v>
+      </c>
+      <c r="G68" s="9">
+        <f>G40</f>
+        <v>60</v>
+      </c>
+      <c r="H68" s="9">
+        <f>H40</f>
+        <v>65</v>
+      </c>
+      <c r="I68" s="9">
+        <f>I40</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>28</v>
+      </c>
+      <c r="B69" s="9">
+        <f>B41</f>
+        <v>40</v>
+      </c>
+      <c r="C69" s="9">
+        <f>C41</f>
+        <v>43.3</v>
+      </c>
+      <c r="D69" s="9">
+        <f>D41</f>
+        <v>46.599999999999994</v>
+      </c>
+      <c r="E69" s="9">
+        <f>E41</f>
+        <v>50</v>
+      </c>
+      <c r="F69" s="9">
+        <f>F41</f>
+        <v>55</v>
+      </c>
+      <c r="G69" s="9">
+        <f>G41</f>
+        <v>60</v>
+      </c>
+      <c r="H69" s="9">
+        <f>H41</f>
+        <v>65</v>
+      </c>
+      <c r="I69" s="9">
+        <f>I41</f>
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="A43:S43"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A16:J16"/>
     <mergeCell ref="A29:J29"/>
